--- a/Modelo - PoC Mensageria_Planilha de setup.xlsx
+++ b/Modelo - PoC Mensageria_Planilha de setup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chicagoadvisory-my.sharepoint.com/personal/beatriz_fernandino_chicagoadvisory_com_br/Documents/Documentos/Arquitetura/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo Moraes\Workspaces\git\poc_notificacoes_eventos\poc_notificacoes_eventos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3712D299-527D-4419-83EA-FCBEA928295A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6F1213-66E8-4C5C-BBFD-B62007C49941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5FC4E12A-5DA7-4DF5-83D9-69979B720680}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Transmissor</t>
   </si>
@@ -78,13 +78,70 @@
   </si>
   <si>
     <t>kafka-acl.sh</t>
+  </si>
+  <si>
+    <t>Mercado Pago</t>
+  </si>
+  <si>
+    <t>e5a1c7ad-11d4-560d-914c-611003a39219</t>
+  </si>
+  <si>
+    <t>9326f9b2-ae57-42c4-a0d9-acc4ba434696</t>
+  </si>
+  <si>
+    <t>openbanking-br-kafka.mercadopago.com:9093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-east-1 </t>
+  </si>
+  <si>
+    <t>edb33747-bdad-41ad-ba70-06af1ba7c5c0</t>
+  </si>
+  <si>
+    <t>Klavi</t>
+  </si>
+  <si>
+    <t>63157678-2559-4c12-a1f8-859a278e408a</t>
+  </si>
+  <si>
+    <t>4fd83954-6c46-4a20-84ed-adcf48fdca28</t>
+  </si>
+  <si>
+    <t>BRCAC PEM: https://keystore.directory.openbankingbrasil.org.br/63157678-2559-4c12-a1f8-859a278e408a/4fd83954-6c46-4a20-84ed-adcf48fdca28/B4BqO0ib5bNJxyu-F72Q60NMZVxGkxBOMcTqrBnqnM0.pem
+BRCAC Keystore: https://keystore.directory.openbankingbrasil.org.br/63157678-2559-4c12-a1f8-859a278e408a/4fd83954-6c46-4a20-84ed-adcf48fdca28/transport.jwks</t>
+  </si>
+  <si>
+    <t>sa-east-1</t>
+  </si>
+  <si>
+    <t>Belvo</t>
+  </si>
+  <si>
+    <t>5883e379-43b1-4184-8304-df32a018620e</t>
+  </si>
+  <si>
+    <t>Belvo Instituicao de Pagamento Ltda.</t>
+  </si>
+  <si>
+    <t>533456f0-8aee-495b-ad45-66383eb3806b</t>
+  </si>
+  <si>
+    <t>US-EAST-2 (US-Ohio)</t>
+  </si>
+  <si>
+    <t>BRCAC PEM: https://keystore.directory.openbankingbrasil.org.br/5883e379-43b1-4184-8304-df32a018620e/533456f0-8aee-495b-ad45-66383eb3806b/NTzA9UGKqmrwHkwx36yNuFgv7ntX5u49qjzJT-tO4fI.pem
+BRCAC Keystore: https://keystore.directory.openbankingbrasil.org.br/5883e379-43b1-4184-8304-df32a018620e/533456f0-8aee-495b-ad45-66383eb3806b/transport.jwks</t>
+  </si>
+  <si>
+    <t>BRCAC PEM: https://keystore.directory.openbankingbrasil.org.br/e5a1c7ad-11d4-560d-914c-611003a39219/edb33747-bdad-41ad-ba70-06af1ba7c5c0/qBT50xzZPieeNX1fssg-vji2o-nllEZcwt0381BqQ7o.pem
+BRCAC Keystore: https://keystore.directory.openbankingbrasil.org.br/e5a1c7ad-11d4-560d-914c-611003a39219/edb33747-bdad-41ad-ba70-06af1ba7c5c0/transport.jwks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +165,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,8 +218,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,11 +233,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,8 +258,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,25 +602,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D76F154-5C0F-4B7D-91C2-F7025BCBAC02}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,52 +643,194 @@
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="4" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -586,6 +838,9 @@
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:O1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="http://openbanking-br-kafka.mercadopago.com:9093/" xr:uid="{11BDD2C0-74AA-4E43-99CE-191604F4BF88}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>